--- a/src/analysis_examples/circadb/results_lomb/cosinor_10595856_slc25a36_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10595856_slc25a36_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2959396483691049, 0.4077529254549461]</t>
+          <t>[0.2942584867548458, 0.40943408706920525]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.445865649429834e-11</v>
+        <v>2.519651154386793e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>1.445865649429834e-11</v>
+        <v>2.519651154386793e-11</v>
       </c>
       <c r="O2" t="n">
         <v>-0.5031579825569237</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.46594616225399094, 0.5265633683159485]</t>
+          <t>[0.46595828616276436, 0.526551244407175]</t>
         </is>
       </c>
       <c r="U2" t="n">
